--- a/SYUMAI_Siyousyo_Yasuhara.xlsx
+++ b/SYUMAI_Siyousyo_Yasuhara.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="オブジェクト(有害)" sheetId="8" r:id="rId1"/>
-    <sheet name="UI" sheetId="9" r:id="rId2"/>
+    <sheet name="メニュー" sheetId="10" r:id="rId2"/>
+    <sheet name="UI" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>オブジェクト(有害)</t>
     <phoneticPr fontId="1"/>
@@ -259,6 +260,82 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>メニュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューボタンで開けるメニュー画面の
+現在のイメージは上の図の通りです。
+下記でメニュー画面の仕様を説明します。</t>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ボタン</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">カーソルを合わせてクリックやボタンを押すことで
+書いてあることを実行できるボタンです。
+付箋のようなデザインを想定しています。
+</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>フセン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューを閉じる</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューは、
+メニューを閉じるボタンを押す以外にも
+PキーやSTARTボタンでも閉じれるようにします。</t>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +774,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -699,6 +794,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF000000"/>
       <color rgb="FFF937DD"/>
     </mruColors>
   </colors>
@@ -1906,6 +2002,1083 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1181100"/>
+          <a:ext cx="3486150" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="1695450"/>
+          <a:ext cx="2828925" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="1343025"/>
+          <a:ext cx="733425" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895725" y="1333500"/>
+          <a:ext cx="733425" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1181100"/>
+          <a:ext cx="3486150" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1819275" y="1304925"/>
+          <a:ext cx="2305050" cy="2019300"/>
+          <a:chOff x="1771650" y="2028825"/>
+          <a:chExt cx="2305050" cy="2019300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="グループ化 8"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1771650" y="2028825"/>
+            <a:ext cx="2305050" cy="2019300"/>
+            <a:chOff x="1781175" y="1323975"/>
+            <a:chExt cx="2305050" cy="2019300"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="横巻き 3"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1781175" y="1323975"/>
+              <a:ext cx="2305050" cy="2019300"/>
+            </a:xfrm>
+            <a:prstGeom prst="horizontalScroll">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2124074" y="1905001"/>
+              <a:ext cx="1771651" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>チュートリアルを見る</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2133599" y="2390775"/>
+              <a:ext cx="1752601" cy="390525"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ステージセレクトに戻る</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2466975" y="2266949"/>
+            <a:ext cx="1076325" cy="390525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+              <a:t>メニュー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="2828925"/>
+          <a:ext cx="1143000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニューを閉じる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4505326" y="1685925"/>
+          <a:ext cx="476249" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="1362075"/>
+          <a:ext cx="923925" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>暗くする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="1495425"/>
+          <a:ext cx="1171575" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="1114425"/>
+          <a:ext cx="923925" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>紙のような</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>デザイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638174" y="5495926"/>
+          <a:ext cx="1771651" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チュートリアルを見る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647699" y="6096000"/>
+          <a:ext cx="1752601" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージセレクトに戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="6705600"/>
+          <a:ext cx="1143000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニューを閉じる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="8420100"/>
+          <a:ext cx="1676400" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニューを閉じる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4390,7 +5563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -5008,10 +6181,483 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B1" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="49"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="41"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="41"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="41"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="41"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="41"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="41"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="41"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="41"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="41"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="41"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="41"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="41"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="43"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="41"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="41"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="43"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="41"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="41"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="41"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="41"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="41"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="41"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="43"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="41"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="41"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="41"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="41"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="41"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="41"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="43"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A33:D40"/>
+    <mergeCell ref="E31:I40"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A3:I16"/>
+    <mergeCell ref="A17:I20"/>
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="A23:D30"/>
+    <mergeCell ref="E21:I30"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:I30"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5576,18 +7222,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E41:I50"/>
+    <mergeCell ref="E31:I40"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A33:D40"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A43:D50"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="A3:I16"/>
     <mergeCell ref="A17:I20"/>
     <mergeCell ref="E21:I30"/>
     <mergeCell ref="A21:D22"/>
     <mergeCell ref="A23:D30"/>
-    <mergeCell ref="E41:I50"/>
-    <mergeCell ref="E31:I40"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="A33:D40"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A43:D50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SYUMAI_Siyousyo_Yasuhara.xlsx
+++ b/SYUMAI_Siyousyo_Yasuhara.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="オブジェクト(有害)" sheetId="8" r:id="rId1"/>
-    <sheet name="メニュー" sheetId="10" r:id="rId2"/>
-    <sheet name="UI" sheetId="9" r:id="rId3"/>
+    <sheet name="UI" sheetId="9" r:id="rId2"/>
+    <sheet name="メニュー" sheetId="10" r:id="rId3"/>
+    <sheet name="チュートリアル" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>オブジェクト(有害)</t>
     <phoneticPr fontId="1"/>
@@ -321,7 +322,8 @@
   <si>
     <t>メニューは、
 メニューを閉じるボタンを押す以外にも
-PキーやSTARTボタンでも閉じれるようにします。</t>
+PキーやSTARTボタン、Bボタンでも
+閉じれるようにします。</t>
     <rPh sb="12" eb="13">
       <t>ト</t>
     </rPh>
@@ -331,8 +333,133 @@
     <rPh sb="21" eb="23">
       <t>イガイ</t>
     </rPh>
-    <rPh sb="40" eb="41">
+    <rPh sb="46" eb="47">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択画面</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル選択画面はメニュー画面を
+隠すような形で表示させます。
+各項目のボタンを押すと
+その項目のチュートリアルを表示させます。
+左右の三角のボタンを押すと
+別の項目を表示させます。
+下の戻るボタンかBボタンを押すと
+閉じれるようにします。</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル選択画面に重ねるように
+チュートリアルを表示させます。
+各項目のチュートリアルは
+説明文と画像(映像)をセットで表示させます。
+下の戻るボタンかBボタンを押すと
+選択画面に戻れるようにします。</t>
+    <rPh sb="7" eb="11">
+      <t>センタクガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>セツメイブン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="88" eb="92">
+      <t>センタクガメン</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -762,6 +889,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,18 +912,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2002,1083 +2129,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1200150" y="1181100"/>
-          <a:ext cx="3486150" cy="2238375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1533525" y="1695450"/>
-          <a:ext cx="2828925" cy="1647825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3086100" y="1343025"/>
-          <a:ext cx="733425" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3895725" y="1333500"/>
-          <a:ext cx="733425" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1200150" y="1181100"/>
-          <a:ext cx="3486150" cy="2238375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000">
-            <a:alpha val="20000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1819275" y="1304925"/>
-          <a:ext cx="2305050" cy="2019300"/>
-          <a:chOff x="1771650" y="2028825"/>
-          <a:chExt cx="2305050" cy="2019300"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="グループ化 8"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1771650" y="2028825"/>
-            <a:ext cx="2305050" cy="2019300"/>
-            <a:chOff x="1781175" y="1323975"/>
-            <a:chExt cx="2305050" cy="2019300"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="横巻き 3"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1781175" y="1323975"/>
-              <a:ext cx="2305050" cy="2019300"/>
-            </a:xfrm>
-            <a:prstGeom prst="horizontalScroll">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2124074" y="1905001"/>
-              <a:ext cx="1771651" cy="381000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent6">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent6"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent6"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>チュートリアルを見る</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2133599" y="2390775"/>
-              <a:ext cx="1752601" cy="390525"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>ステージセレクトに戻る</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2466975" y="2266949"/>
-            <a:ext cx="1076325" cy="390525"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-              <a:t>メニュー</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="2828925"/>
-          <a:ext cx="1143000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>メニューを閉じる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4505326" y="1685925"/>
-          <a:ext cx="476249" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4886325" y="1362075"/>
-          <a:ext cx="923925" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面を</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>暗くする</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="971550" y="1495425"/>
-          <a:ext cx="1171575" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="142875" y="1114425"/>
-          <a:ext cx="923925" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>紙のような</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>デザイン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="638174" y="5495926"/>
-          <a:ext cx="1771651" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>チュートリアルを見る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="647699" y="6096000"/>
-          <a:ext cx="1752601" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ステージセレクトに戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="895350" y="6705600"/>
-          <a:ext cx="1143000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>メニューを閉じる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="523875" y="8420100"/>
-          <a:ext cx="1676400" cy="238124"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>メニューを閉じる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5298,6 +4348,1982 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1181100"/>
+          <a:ext cx="3486150" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="1695450"/>
+          <a:ext cx="2828925" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="1343025"/>
+          <a:ext cx="733425" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895725" y="1333500"/>
+          <a:ext cx="733425" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1181100"/>
+          <a:ext cx="3486150" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1819275" y="1304925"/>
+          <a:ext cx="2305050" cy="2019300"/>
+          <a:chOff x="1771650" y="2028825"/>
+          <a:chExt cx="2305050" cy="2019300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="グループ化 8"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1771650" y="2028825"/>
+            <a:ext cx="2305050" cy="2019300"/>
+            <a:chOff x="1781175" y="1323975"/>
+            <a:chExt cx="2305050" cy="2019300"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="横巻き 3"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1781175" y="1323975"/>
+              <a:ext cx="2305050" cy="2019300"/>
+            </a:xfrm>
+            <a:prstGeom prst="horizontalScroll">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2124074" y="1905001"/>
+              <a:ext cx="1771651" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>チュートリアルを見る</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2133599" y="2390775"/>
+              <a:ext cx="1752601" cy="390525"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ステージセレクトに戻る</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2466975" y="2266949"/>
+            <a:ext cx="1076325" cy="390525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+              <a:t>メニュー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="2828925"/>
+          <a:ext cx="1143000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニューを閉じる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4543426" y="1647825"/>
+          <a:ext cx="476249" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="1362075"/>
+          <a:ext cx="923925" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>暗くする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="1514475"/>
+          <a:ext cx="1171575" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="1114425"/>
+          <a:ext cx="923925" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>紙のような</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>デザイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638174" y="5495926"/>
+          <a:ext cx="1771651" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チュートリアルを見る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647699" y="6096000"/>
+          <a:ext cx="1752601" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージセレクトに戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="6705600"/>
+          <a:ext cx="1143000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニューを閉じる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="8420100"/>
+          <a:ext cx="1676400" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニューを閉じる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="1065552"/>
+          <a:ext cx="2543175" cy="1639862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52197</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="横巻き 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152399" y="1123950"/>
+          <a:ext cx="2352675" cy="1557147"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チュートリアル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="1581150"/>
+          <a:ext cx="838200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="1981200"/>
+          <a:ext cx="838200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="1590675"/>
+          <a:ext cx="838200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="1990725"/>
+          <a:ext cx="838200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>159732</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>170867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>339732</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="直角三角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2699631">
+          <a:off x="159732" y="1847947"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>302004</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>478340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>94757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="直角三角形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13464813">
+          <a:off x="2359404" y="1829282"/>
+          <a:ext cx="176336" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="2324100"/>
+          <a:ext cx="895350" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>105089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="3484902"/>
+          <a:ext cx="2543175" cy="1639862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="横巻き 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171449" y="3543300"/>
+          <a:ext cx="2352675" cy="1557147"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チュートリアル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="横巻き 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323849" y="3543300"/>
+          <a:ext cx="2152651" cy="1557147"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>項目名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="4733925"/>
+          <a:ext cx="895350" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314445</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="4076700"/>
+          <a:ext cx="857370" cy="552527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="4038600"/>
+          <a:ext cx="819150" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>説明文</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>適当</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -6181,32 +7207,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:I40"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B1" s="47" t="s">
-        <v>16</v>
+      <c r="B1" s="51" t="s">
+        <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="49"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -6360,7 +7386,597 @@
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="41"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="41"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="43"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="41"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="41"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="41"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="41"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="41"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="41"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="43"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="41"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="41"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="41"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="41"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="41"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="41"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="43"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="41"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="41"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="41"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="41"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="41"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="26"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="41"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+    </row>
+    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="43"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A3:I16"/>
+    <mergeCell ref="A17:I20"/>
+    <mergeCell ref="E21:I30"/>
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="A23:D30"/>
+    <mergeCell ref="E41:I50"/>
+    <mergeCell ref="E31:I40"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A33:D40"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A43:D50"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B1" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="53"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="41"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="41"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="41"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="41"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="41"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="41"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="41"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="41"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="41"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="41"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="41"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="41"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="43"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="54" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="23"/>
@@ -6406,12 +8022,12 @@
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="45" t="s">
         <v>19</v>
       </c>
@@ -6421,10 +8037,10 @@
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="30"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -6520,12 +8136,12 @@
       <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="45" t="s">
         <v>21</v>
       </c>
@@ -6535,10 +8151,10 @@
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="30"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
@@ -6652,60 +8268,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:I20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B1" s="47" t="s">
-        <v>5</v>
+      <c r="B1" s="51" t="s">
+        <v>22</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="49"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="41"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -6715,8 +8335,8 @@
       <c r="A6" s="41"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -6726,8 +8346,8 @@
       <c r="A7" s="41"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -6737,8 +8357,8 @@
       <c r="A8" s="41"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -6748,8 +8368,8 @@
       <c r="A9" s="41"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -6759,8 +8379,8 @@
       <c r="A10" s="41"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -6770,87 +8390,89 @@
       <c r="A11" s="41"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="26"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="41"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+    <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="43"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="41"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
+      <c r="A13" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="41"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="41"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
     </row>
-    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="43"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="41"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="41"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -6860,380 +8482,55 @@
       <c r="A19" s="41"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
     </row>
-    <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="43"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="41"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="41"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="41"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="41"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="41"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="41"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="41"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="43"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="41"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="41"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="41"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="41"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="41"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="41"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="43"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="24"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="41"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="41"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="41"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="26"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="41"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="26"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="41"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="26"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="41"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
-    </row>
-    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="43"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="28"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="43"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E41:I50"/>
-    <mergeCell ref="E31:I40"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="A33:D40"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A43:D50"/>
+  <mergeCells count="7">
     <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A3:I16"/>
-    <mergeCell ref="A17:I20"/>
-    <mergeCell ref="E21:I30"/>
-    <mergeCell ref="A21:D22"/>
-    <mergeCell ref="A23:D30"/>
+    <mergeCell ref="E3:I12"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E13:I22"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A5:D12"/>
+    <mergeCell ref="A15:D22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
